--- a/contratos/contratos-4-2021.xlsx
+++ b/contratos/contratos-4-2021.xlsx
@@ -211,49 +211,49 @@
     <t>3</t>
   </si>
   <si>
-    <t>28.248,75</t>
-  </si>
-  <si>
-    <t>216.000,00</t>
-  </si>
-  <si>
-    <t>130.380,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>9.952,00</t>
-  </si>
-  <si>
-    <t>75.150,00</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
-  </si>
-  <si>
-    <t>31.974,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>61.320,00</t>
-  </si>
-  <si>
-    <t>12.094,06</t>
-  </si>
-  <si>
-    <t>213.000,00</t>
-  </si>
-  <si>
-    <t>1.842,68</t>
-  </si>
-  <si>
-    <t>6.530,00</t>
+    <t>28248.75</t>
+  </si>
+  <si>
+    <t>216000.00</t>
+  </si>
+  <si>
+    <t>130380.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>9952.00</t>
+  </si>
+  <si>
+    <t>75150.00</t>
+  </si>
+  <si>
+    <t>13800.00</t>
+  </si>
+  <si>
+    <t>31974.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>61320.00</t>
+  </si>
+  <si>
+    <t>12094.06</t>
+  </si>
+  <si>
+    <t>213000.00</t>
+  </si>
+  <si>
+    <t>1842.68</t>
+  </si>
+  <si>
+    <t>6530.00</t>
   </si>
 </sst>
 </file>
